--- a/BD Mapas Municipios/02_Especificaciones_Coleccion_Municipios_v2.xlsx
+++ b/BD Mapas Municipios/02_Especificaciones_Coleccion_Municipios_v2.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIG_COLECCIONES_DI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-MUNI\BD Mapas Municipios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508767EB-BC53-4F62-ADF7-E7A1B955D502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779BFE30-C428-4B56-9609-DEF78103A3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{95232958-B096-48C2-8B56-0959ACB55B49}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{95232958-B096-48C2-8B56-0959ACB55B49}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
     <sheet name="Servicios" sheetId="6" r:id="rId2"/>
     <sheet name="Ejemplo Mapa Web" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1668,7 +1668,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1726,6 +1726,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1951,7 +1957,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -2106,6 +2112,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2519,25 +2535,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2313D6-73A3-42EE-B7CD-B71749588E2A}">
-  <dimension ref="A1:G164"/>
+  <dimension ref="A1:H164"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" style="13" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="s">
         <v>63</v>
       </c>
@@ -2560,7 +2576,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
         <v>64</v>
       </c>
@@ -2583,7 +2599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="55"/>
       <c r="B3" s="56"/>
       <c r="C3" s="57"/>
@@ -2598,7 +2614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="59" t="s">
         <v>65</v>
       </c>
@@ -2621,7 +2637,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="59"/>
       <c r="B5" s="60"/>
       <c r="C5" s="61"/>
@@ -2636,7 +2652,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="59"/>
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
@@ -2651,7 +2667,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="59"/>
       <c r="B7" s="60"/>
       <c r="C7" s="61"/>
@@ -2666,7 +2682,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="59"/>
       <c r="B8" s="60"/>
       <c r="C8" s="61"/>
@@ -2681,7 +2697,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="59"/>
       <c r="B9" s="60"/>
       <c r="C9" s="61"/>
@@ -2696,7 +2712,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="59"/>
       <c r="B10" s="60"/>
       <c r="C10" s="61"/>
@@ -2711,7 +2727,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="59"/>
       <c r="B11" s="60"/>
       <c r="C11" s="61"/>
@@ -2726,7 +2742,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="59"/>
       <c r="B12" s="60"/>
       <c r="C12" s="61"/>
@@ -2741,7 +2757,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="59"/>
       <c r="B13" s="60"/>
       <c r="C13" s="61"/>
@@ -2756,7 +2772,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="59"/>
       <c r="B14" s="60"/>
       <c r="C14" s="61"/>
@@ -2771,7 +2787,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="59"/>
       <c r="B15" s="60"/>
       <c r="C15" s="61"/>
@@ -2786,7 +2802,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="59"/>
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
@@ -2801,7 +2817,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="59"/>
       <c r="B17" s="60"/>
       <c r="C17" s="61"/>
@@ -2816,7 +2832,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="59"/>
       <c r="B18" s="60"/>
       <c r="C18" s="61"/>
@@ -2831,7 +2847,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="59"/>
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
@@ -2846,7 +2862,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="59"/>
       <c r="B20" s="60"/>
       <c r="C20" s="61"/>
@@ -2861,7 +2877,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="59"/>
       <c r="B21" s="60"/>
       <c r="C21" s="61"/>
@@ -2876,7 +2892,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="59"/>
       <c r="B22" s="60"/>
       <c r="C22" s="61"/>
@@ -2891,7 +2907,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="55" t="s">
         <v>68</v>
       </c>
@@ -2914,7 +2930,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="55"/>
       <c r="B24" s="56"/>
       <c r="C24" s="57"/>
@@ -2929,7 +2945,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="55"/>
       <c r="B25" s="56"/>
       <c r="C25" s="57"/>
@@ -2944,7 +2960,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="55"/>
       <c r="B26" s="56"/>
       <c r="C26" s="57"/>
@@ -2959,7 +2975,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="65" t="s">
         <v>85</v>
       </c>
@@ -2982,37 +2998,37 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="65"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="88"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="F28" s="68" t="s">
+      <c r="F28" s="91" t="s">
         <v>133</v>
       </c>
-      <c r="G28" s="69" t="s">
+      <c r="G28" s="92" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="65"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="88"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="F29" s="68" t="s">
+      <c r="F29" s="91" t="s">
         <v>134</v>
       </c>
-      <c r="G29" s="69" t="s">
+      <c r="G29" s="92" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="70" t="s">
         <v>91</v>
       </c>
@@ -3035,7 +3051,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="70"/>
       <c r="B31" s="71"/>
       <c r="C31" s="72"/>
@@ -3050,7 +3066,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="70"/>
       <c r="B32" s="71"/>
       <c r="C32" s="72"/>
@@ -3065,7 +3081,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="70"/>
       <c r="B33" s="71"/>
       <c r="C33" s="72"/>
@@ -3080,7 +3096,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="70"/>
       <c r="B34" s="71"/>
       <c r="C34" s="72"/>
@@ -3095,7 +3111,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="70"/>
       <c r="B35" s="71"/>
       <c r="C35" s="72"/>
@@ -3110,7 +3126,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="70"/>
       <c r="B36" s="71"/>
       <c r="C36" s="72"/>
@@ -3125,7 +3141,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="70"/>
       <c r="B37" s="71"/>
       <c r="C37" s="72"/>
@@ -3140,7 +3156,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="70"/>
       <c r="B38" s="71"/>
       <c r="C38" s="72"/>
@@ -3155,68 +3171,68 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="65" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="B39" s="66" t="s">
+      <c r="B39" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="67">
+      <c r="C39" s="90">
         <v>6</v>
       </c>
-      <c r="D39" s="66" t="s">
+      <c r="D39" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="66" t="s">
+      <c r="E39" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="F39" s="68" t="s">
+      <c r="F39" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="G39" s="69" t="s">
+      <c r="G39" s="92" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="70" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="71" t="s">
+      <c r="B40" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="72">
+      <c r="C40" s="90">
         <v>7</v>
       </c>
-      <c r="D40" s="71" t="s">
+      <c r="D40" s="89" t="s">
         <v>171</v>
       </c>
-      <c r="E40" s="71" t="s">
+      <c r="E40" s="89" t="s">
         <v>143</v>
       </c>
-      <c r="F40" s="73" t="s">
+      <c r="F40" s="91" t="s">
         <v>162</v>
       </c>
-      <c r="G40" s="74" t="s">
+      <c r="G40" s="92" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="70"/>
-      <c r="B41" s="71"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="88"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="F41" s="73" t="s">
+      <c r="F41" s="91" t="s">
         <v>163</v>
       </c>
-      <c r="G41" s="74" t="s">
+      <c r="G41" s="92" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="70"/>
       <c r="B42" s="71"/>
       <c r="C42" s="72"/>
@@ -3231,7 +3247,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="70"/>
       <c r="B43" s="71"/>
       <c r="C43" s="72"/>
@@ -3246,7 +3262,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="70"/>
       <c r="B44" s="71"/>
       <c r="C44" s="72"/>
@@ -3261,7 +3277,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="70"/>
       <c r="B45" s="71"/>
       <c r="C45" s="72"/>
@@ -3276,22 +3292,22 @@
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="70"/>
-      <c r="B46" s="71"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="71" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="88"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="F46" s="73" t="s">
+      <c r="F46" s="91" t="s">
         <v>166</v>
       </c>
-      <c r="G46" s="74" t="s">
+      <c r="G46" s="92" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="70"/>
       <c r="B47" s="71"/>
       <c r="C47" s="72"/>
@@ -3306,7 +3322,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="70"/>
       <c r="B48" s="71"/>
       <c r="C48" s="72"/>
@@ -3321,7 +3337,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="70"/>
       <c r="B49" s="71"/>
       <c r="C49" s="72"/>
@@ -3336,7 +3352,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="59" t="s">
         <v>119</v>
       </c>
@@ -3359,7 +3375,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="59"/>
       <c r="B51" s="60"/>
       <c r="C51" s="61"/>
@@ -3374,7 +3390,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="59"/>
       <c r="B52" s="60"/>
       <c r="C52" s="61"/>
@@ -3389,7 +3405,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="59"/>
       <c r="B53" s="60"/>
       <c r="C53" s="61"/>
@@ -3404,7 +3420,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="59"/>
       <c r="B54" s="60"/>
       <c r="C54" s="61"/>
@@ -3419,7 +3435,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="59"/>
       <c r="B55" s="60"/>
       <c r="C55" s="61"/>
@@ -3434,7 +3450,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="59"/>
       <c r="B56" s="60"/>
       <c r="C56" s="61"/>
@@ -3449,7 +3465,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="59"/>
       <c r="B57" s="60"/>
       <c r="C57" s="61"/>
@@ -3464,7 +3480,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="59"/>
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
@@ -3479,7 +3495,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="59"/>
       <c r="B59" s="60"/>
       <c r="C59" s="61"/>
@@ -3494,7 +3510,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="75" t="s">
         <v>117</v>
       </c>
@@ -3517,7 +3533,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="75"/>
       <c r="B61" s="76"/>
       <c r="C61" s="77"/>
@@ -3532,7 +3548,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="75"/>
       <c r="B62" s="76"/>
       <c r="C62" s="77"/>
@@ -3547,7 +3563,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="75"/>
       <c r="B63" s="76"/>
       <c r="C63" s="77"/>
@@ -3562,7 +3578,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="75"/>
       <c r="B64" s="76"/>
       <c r="C64" s="77"/>
@@ -3577,7 +3593,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="75"/>
       <c r="B65" s="76"/>
       <c r="C65" s="77"/>
@@ -3592,7 +3608,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="75"/>
       <c r="B66" s="76"/>
       <c r="C66" s="77"/>
@@ -3607,7 +3623,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="75"/>
       <c r="B67" s="76"/>
       <c r="C67" s="77"/>
@@ -3622,7 +3638,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="75"/>
       <c r="B68" s="76"/>
       <c r="C68" s="77"/>
@@ -3637,7 +3653,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="75"/>
       <c r="B69" s="76"/>
       <c r="C69" s="77"/>
@@ -3652,7 +3668,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="75"/>
       <c r="B70" s="76"/>
       <c r="C70" s="77"/>
@@ -3667,7 +3683,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="75"/>
       <c r="B71" s="76"/>
       <c r="C71" s="77"/>
@@ -3682,7 +3698,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="75"/>
       <c r="B72" s="76"/>
       <c r="C72" s="77"/>
@@ -3697,30 +3713,30 @@
         <v>201</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="70" t="s">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="B73" s="71" t="s">
+      <c r="B73" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="C73" s="72">
+      <c r="C73" s="90">
         <v>10</v>
       </c>
-      <c r="D73" s="71" t="s">
+      <c r="D73" s="89" t="s">
         <v>233</v>
       </c>
-      <c r="E73" s="71" t="s">
+      <c r="E73" s="89" t="s">
         <v>215</v>
       </c>
-      <c r="F73" s="73" t="s">
+      <c r="F73" s="91" t="s">
         <v>234</v>
       </c>
-      <c r="G73" s="74" t="s">
+      <c r="G73" s="92" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="70"/>
       <c r="B74" s="71"/>
       <c r="C74" s="72"/>
@@ -3735,7 +3751,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="70"/>
       <c r="B75" s="71"/>
       <c r="C75" s="72"/>
@@ -3750,22 +3766,22 @@
         <v>227</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="70"/>
-      <c r="B76" s="71"/>
-      <c r="C76" s="72"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="71" t="s">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="88"/>
+      <c r="B76" s="89"/>
+      <c r="C76" s="90"/>
+      <c r="D76" s="89"/>
+      <c r="E76" s="89" t="s">
         <v>218</v>
       </c>
-      <c r="F76" s="73" t="s">
+      <c r="F76" s="91" t="s">
         <v>237</v>
       </c>
-      <c r="G76" s="74" t="s">
+      <c r="G76" s="92" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="70"/>
       <c r="B77" s="71"/>
       <c r="C77" s="72"/>
@@ -3780,7 +3796,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="70"/>
       <c r="B78" s="71"/>
       <c r="C78" s="72"/>
@@ -3795,22 +3811,22 @@
         <v>230</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="70"/>
-      <c r="B79" s="71"/>
-      <c r="C79" s="72"/>
-      <c r="D79" s="71"/>
-      <c r="E79" s="71" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="88"/>
+      <c r="B79" s="89"/>
+      <c r="C79" s="90"/>
+      <c r="D79" s="89"/>
+      <c r="E79" s="89" t="s">
         <v>221</v>
       </c>
-      <c r="F79" s="73" t="s">
+      <c r="F79" s="91" t="s">
         <v>240</v>
       </c>
-      <c r="G79" s="74" t="s">
+      <c r="G79" s="92" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="83"/>
       <c r="B80" s="84"/>
       <c r="C80" s="85"/>
@@ -3825,7 +3841,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="19" t="s">
         <v>120</v>
       </c>
@@ -3847,8 +3863,9 @@
       <c r="G81" s="5" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" s="93"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="17" t="s">
         <v>121</v>
       </c>
@@ -3870,8 +3887,9 @@
       <c r="G82" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" s="93"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="19" t="s">
         <v>122</v>
       </c>
@@ -3893,8 +3911,9 @@
       <c r="G83" s="5" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" s="93"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="23"/>
       <c r="B84" s="27"/>
       <c r="C84" s="25"/>
@@ -3903,7 +3922,7 @@
       <c r="F84" s="26"/>
       <c r="G84" s="24"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="16" t="s">
         <v>106</v>
       </c>
@@ -3925,8 +3944,9 @@
       <c r="G85" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" s="93"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="17" t="s">
         <v>108</v>
       </c>
@@ -3948,8 +3968,9 @@
       <c r="G86" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" s="93"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="19" t="s">
         <v>109</v>
       </c>
@@ -3971,8 +3992,9 @@
       <c r="G87" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" s="93"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="17" t="s">
         <v>102</v>
       </c>
@@ -3993,7 +4015,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
       <c r="B89" s="2"/>
       <c r="C89" s="8"/>
@@ -4008,7 +4030,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
       <c r="B90" s="2"/>
       <c r="C90" s="8"/>
@@ -4023,7 +4045,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
       <c r="B91" s="2"/>
       <c r="C91" s="8"/>
@@ -4038,7 +4060,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
       <c r="B92" s="2"/>
       <c r="C92" s="8"/>
@@ -4053,7 +4075,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
       <c r="B93" s="2"/>
       <c r="C93" s="8"/>
@@ -4068,7 +4090,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
       <c r="B94" s="2"/>
       <c r="C94" s="8"/>
@@ -4083,7 +4105,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
       <c r="B95" s="2"/>
       <c r="C95" s="8"/>
@@ -4098,7 +4120,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
       <c r="B96" s="2"/>
       <c r="C96" s="8"/>
@@ -4113,7 +4135,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="17"/>
       <c r="B97" s="2"/>
       <c r="C97" s="8"/>
@@ -4128,7 +4150,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
         <v>111</v>
       </c>
@@ -4149,7 +4171,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="15"/>
       <c r="B99" s="1"/>
       <c r="C99" s="7"/>
@@ -4164,7 +4186,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="15"/>
       <c r="B100" s="1"/>
       <c r="C100" s="7"/>
@@ -4179,7 +4201,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="15"/>
       <c r="B101" s="1"/>
       <c r="C101" s="7"/>
@@ -4194,7 +4216,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="15"/>
       <c r="B102" s="1"/>
       <c r="C102" s="7"/>
@@ -4209,7 +4231,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="15"/>
       <c r="B103" s="1"/>
       <c r="C103" s="7"/>
@@ -4224,7 +4246,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="16" t="s">
         <v>112</v>
       </c>
@@ -4245,7 +4267,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="16"/>
       <c r="B105" s="3"/>
       <c r="C105" s="9"/>
@@ -4260,7 +4282,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="16"/>
       <c r="B106" s="3"/>
       <c r="C106" s="9"/>
@@ -4275,7 +4297,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="16"/>
       <c r="B107" s="3"/>
       <c r="C107" s="9"/>
@@ -4290,7 +4312,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="16"/>
       <c r="B108" s="3"/>
       <c r="C108" s="9"/>
@@ -4305,7 +4327,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="16"/>
       <c r="B109" s="3"/>
       <c r="C109" s="9"/>
@@ -4320,7 +4342,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="16"/>
       <c r="B110" s="3"/>
       <c r="C110" s="9"/>
@@ -4335,7 +4357,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="18" t="s">
         <v>113</v>
       </c>
@@ -4356,7 +4378,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="18"/>
       <c r="B112" s="4"/>
       <c r="C112" s="10"/>
@@ -4371,7 +4393,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="18"/>
       <c r="B113" s="4"/>
       <c r="C113" s="10"/>
@@ -4386,7 +4408,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="18"/>
       <c r="B114" s="4"/>
       <c r="C114" s="10"/>
@@ -4401,7 +4423,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="18"/>
       <c r="B115" s="4"/>
       <c r="C115" s="10"/>
@@ -4416,7 +4438,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="19" t="s">
         <v>114</v>
       </c>
@@ -4437,7 +4459,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="19"/>
       <c r="B117" s="5"/>
       <c r="C117" s="11"/>
@@ -4452,7 +4474,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="19"/>
       <c r="B118" s="5"/>
       <c r="C118" s="11"/>
@@ -4467,7 +4489,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="19"/>
       <c r="B119" s="5"/>
       <c r="C119" s="11"/>
@@ -4482,7 +4504,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="19"/>
       <c r="B120" s="5"/>
       <c r="C120" s="11"/>
@@ -4497,7 +4519,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="19"/>
       <c r="B121" s="5"/>
       <c r="C121" s="11"/>
@@ -4512,7 +4534,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="19"/>
       <c r="B122" s="5"/>
       <c r="C122" s="11"/>
@@ -4527,7 +4549,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="20" t="s">
         <v>115</v>
       </c>
@@ -4548,7 +4570,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="20"/>
       <c r="B124" s="6"/>
       <c r="C124" s="12"/>
@@ -4563,7 +4585,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="20"/>
       <c r="B125" s="6"/>
       <c r="C125" s="12"/>
@@ -4578,7 +4600,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="20"/>
       <c r="B126" s="6"/>
       <c r="C126" s="12"/>
@@ -4593,7 +4615,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="16" t="s">
         <v>65</v>
       </c>
@@ -4614,7 +4636,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="16"/>
       <c r="B128" s="3"/>
       <c r="C128" s="9"/>
@@ -4627,7 +4649,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="16"/>
       <c r="B129" s="3"/>
       <c r="C129" s="9"/>
@@ -4640,7 +4662,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="16"/>
       <c r="B130" s="3"/>
       <c r="C130" s="9"/>
@@ -4653,7 +4675,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="16"/>
       <c r="B131" s="3"/>
       <c r="C131" s="9"/>
@@ -4666,7 +4688,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="16"/>
       <c r="B132" s="3"/>
       <c r="C132" s="9"/>
@@ -4679,7 +4701,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="16"/>
       <c r="B133" s="3"/>
       <c r="C133" s="9"/>
@@ -4692,7 +4714,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="16"/>
       <c r="B134" s="3"/>
       <c r="C134" s="9"/>
@@ -4705,7 +4727,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="16"/>
       <c r="B135" s="3"/>
       <c r="C135" s="9"/>
@@ -4718,7 +4740,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="16"/>
       <c r="B136" s="3"/>
       <c r="C136" s="9"/>
@@ -4731,7 +4753,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="16"/>
       <c r="B137" s="3"/>
       <c r="C137" s="9"/>
@@ -4744,7 +4766,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="16"/>
       <c r="B138" s="3"/>
       <c r="C138" s="9"/>
@@ -4757,7 +4779,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="16"/>
       <c r="B139" s="3"/>
       <c r="C139" s="9"/>
@@ -4770,7 +4792,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="16"/>
       <c r="B140" s="3"/>
       <c r="C140" s="9"/>
@@ -4783,7 +4805,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="16"/>
       <c r="B141" s="3"/>
       <c r="C141" s="9"/>
@@ -4796,7 +4818,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="16"/>
       <c r="B142" s="3"/>
       <c r="C142" s="9"/>
@@ -4809,7 +4831,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="16"/>
       <c r="B143" s="3"/>
       <c r="C143" s="9"/>
@@ -4822,7 +4844,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="16"/>
       <c r="B144" s="3"/>
       <c r="C144" s="9"/>
@@ -4835,7 +4857,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="16"/>
       <c r="B145" s="3"/>
       <c r="C145" s="9"/>
@@ -4848,7 +4870,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="16"/>
       <c r="B146" s="3"/>
       <c r="C146" s="9"/>
@@ -4861,7 +4883,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="16"/>
       <c r="B147" s="3"/>
       <c r="C147" s="9"/>
@@ -4874,7 +4896,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="16"/>
       <c r="B148" s="3"/>
       <c r="C148" s="9"/>
@@ -4887,7 +4909,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="16"/>
       <c r="B149" s="3"/>
       <c r="C149" s="9"/>
@@ -4900,7 +4922,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="16"/>
       <c r="B150" s="3"/>
       <c r="C150" s="9"/>
@@ -4913,7 +4935,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="16"/>
       <c r="B151" s="3"/>
       <c r="C151" s="9"/>
@@ -4926,7 +4948,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="16"/>
       <c r="B152" s="3"/>
       <c r="C152" s="9"/>
@@ -4939,7 +4961,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="16"/>
       <c r="B153" s="3"/>
       <c r="C153" s="9"/>
@@ -4952,7 +4974,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="16"/>
       <c r="B154" s="3"/>
       <c r="C154" s="9"/>
@@ -4965,7 +4987,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="16"/>
       <c r="B155" s="3"/>
       <c r="C155" s="9"/>
@@ -4978,7 +5000,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="16"/>
       <c r="B156" s="3"/>
       <c r="C156" s="9"/>
@@ -4991,7 +5013,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="16"/>
       <c r="B157" s="3"/>
       <c r="C157" s="9"/>
@@ -5004,7 +5026,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="16"/>
       <c r="B158" s="3"/>
       <c r="C158" s="9"/>
@@ -5017,7 +5039,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="16"/>
       <c r="B159" s="3"/>
       <c r="C159" s="9"/>
@@ -5030,7 +5052,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="16"/>
       <c r="B160" s="3"/>
       <c r="C160" s="9"/>
@@ -5043,7 +5065,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="16"/>
       <c r="B161" s="3"/>
       <c r="C161" s="9"/>
@@ -5056,7 +5078,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="16"/>
       <c r="B162" s="3"/>
       <c r="C162" s="9"/>
@@ -5069,7 +5091,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="16"/>
       <c r="B163" s="3"/>
       <c r="C163" s="9"/>
@@ -5082,7 +5104,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="16"/>
       <c r="B164" s="3"/>
       <c r="C164" s="9"/>
@@ -5111,14 +5133,14 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="38"/>
       <c r="B1" s="47" t="s">
         <v>131</v>
@@ -5130,7 +5152,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="38">
         <v>1</v>
       </c>
@@ -5144,7 +5166,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="40"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -5152,7 +5174,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="39">
         <v>2</v>
       </c>
@@ -5166,7 +5188,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="38">
         <v>3</v>
       </c>
@@ -5180,7 +5202,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="39"/>
       <c r="B6" s="31"/>
       <c r="C6" s="49" t="s">
@@ -5190,7 +5212,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="37">
         <v>4</v>
       </c>
@@ -5204,7 +5226,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>130</v>
       </c>
@@ -5222,7 +5244,7 @@
       <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
